--- a/database/xlsx/unittest__tables.xlsx
+++ b/database/xlsx/unittest__tables.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="(Tables List)" sheetId="1" r:id="rId4"/>
+    <sheet state="visible" name="(Database)" sheetId="1" r:id="rId4"/>
     <sheet state="visible" name="(common_fields)" sheetId="2" r:id="rId5"/>
     <sheet state="visible" name="master_table" sheetId="3" r:id="rId6"/>
     <sheet state="visible" name="details_table" sheetId="4" r:id="rId7"/>
@@ -14,69 +14,51 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="48">
-  <si>
-    <t>Database Unit Test - Table List</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="62">
+  <si>
+    <t>Database: Unit Test</t>
   </si>
   <si>
     <t>Metadata</t>
   </si>
   <si>
-    <t>$Database: unittest</t>
-  </si>
-  <si>
-    <t>General Tables</t>
-  </si>
-  <si>
-    <t>tables_list</t>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>$Database</t>
+  </si>
+  <si>
+    <t>unittest</t>
+  </si>
+  <si>
+    <t>Tables List</t>
+  </si>
+  <si>
+    <t>Table Name</t>
+  </si>
+  <si>
+    <t>(common_fields)</t>
+  </si>
+  <si>
+    <t>Common fields</t>
   </si>
   <si>
     <t>master_table</t>
   </si>
   <si>
+    <t>Master table with all field types</t>
+  </si>
+  <si>
     <t>details_table</t>
   </si>
   <si>
-    <t>Other Tables</t>
-  </si>
-  <si>
-    <t>special products ??</t>
-  </si>
-  <si>
-    <t>telemetry</t>
-  </si>
-  <si>
-    <t>alerts</t>
-  </si>
-  <si>
-    <t>schedules</t>
-  </si>
-  <si>
-    <t>maintanance</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>users</t>
-  </si>
-  <si>
-    <t>events</t>
-  </si>
-  <si>
-    <t>pipeline_log</t>
-  </si>
-  <si>
-    <t>products</t>
-  </si>
-  <si>
-    <t>target_of_op</t>
-  </si>
-  <si>
-    <t>followup</t>
-  </si>
-  <si>
-    <t>command_and_control</t>
+    <t>Details table to test links between tables</t>
   </si>
   <si>
     <t>Field Name</t>
@@ -85,9 +67,6 @@
     <t>Data Type</t>
   </si>
   <si>
-    <t>Description</t>
-  </si>
-  <si>
     <t>Comments</t>
   </si>
   <si>
@@ -148,10 +127,73 @@
     <t>string</t>
   </si>
   <si>
+    <t># More double fields</t>
+  </si>
+  <si>
+    <t>FDouble1</t>
+  </si>
+  <si>
+    <t>FDouble2</t>
+  </si>
+  <si>
+    <t>FDouble3</t>
+  </si>
+  <si>
+    <t>FDouble4</t>
+  </si>
+  <si>
+    <t>FDouble5</t>
+  </si>
+  <si>
+    <t>FDouble6</t>
+  </si>
+  <si>
+    <t>FDouble7</t>
+  </si>
+  <si>
+    <t>FDouble8</t>
+  </si>
+  <si>
+    <t>FDouble9</t>
+  </si>
+  <si>
+    <t>FDouble10</t>
+  </si>
+  <si>
+    <t>FDouble11</t>
+  </si>
+  <si>
+    <t>FDouble12</t>
+  </si>
+  <si>
+    <t>FDouble13</t>
+  </si>
+  <si>
+    <t>FDouble14</t>
+  </si>
+  <si>
+    <t>FDouble15</t>
+  </si>
+  <si>
+    <t>FDouble16</t>
+  </si>
+  <si>
+    <t>FDouble17</t>
+  </si>
+  <si>
+    <t>FDouble18</t>
+  </si>
+  <si>
+    <t>FDouble19</t>
+  </si>
+  <si>
+    <t>FDouble20</t>
+  </si>
+  <si>
     <t># Include common fields</t>
   </si>
   <si>
-    <t>(common_fields)</t>
+    <t># Fields</t>
   </si>
   <si>
     <t>master_string</t>
@@ -164,10 +206,55 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="10">
+  <fonts count="12">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14.0"/>
+      <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="14.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="&quot;Arial&quot;"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12.0"/>
       <name val="Arial"/>
     </font>
     <font>
@@ -176,108 +263,157 @@
       <name val="Arial"/>
     </font>
     <font>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-    </font>
-    <font>
       <b/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
-    <font>
-      <b/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12.0"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12.0"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-    </font>
-    <font/>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFE599"/>
+        <bgColor rgb="FFFFE599"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9EAD3"/>
+        <bgColor rgb="FFD9EAD3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD0E0E3"/>
+        <bgColor rgb="FFD0E0E3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF3F3F3"/>
+        <bgColor rgb="FFF3F3F3"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFEFEFEF"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCFE2F3"/>
+        <bgColor rgb="FFCFE2F3"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="1">
     <border/>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="41">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="5" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="4" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="6" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="6" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0" vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+    </xf>
+    <xf borderId="0" fillId="7" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="3" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
     <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="7" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
-      <alignment horizontal="left" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="8" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf borderId="0" fillId="0" fontId="9" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+    <xf borderId="0" fillId="0" fontId="10" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="3" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf borderId="0" fillId="0" fontId="11" numFmtId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle xfId="0" name="Normal" builtinId="0"/>
@@ -507,151 +643,286 @@
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="58.86"/>
+    <col customWidth="1" min="2" max="2" width="47.57"/>
+    <col customWidth="1" min="3" max="3" width="47.86"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
     </row>
     <row r="2">
-      <c r="A2" s="2"/>
+      <c r="A2" s="3"/>
     </row>
     <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="4"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="4"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="6" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
+      <c r="B5" s="7"/>
+      <c r="C5" s="7"/>
+      <c r="D5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="8" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="2"/>
+      <c r="B6" s="9" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="2"/>
+      <c r="A7" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="12"/>
+      <c r="D7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
-        <v>3</v>
-      </c>
+      <c r="A8" s="13"/>
+      <c r="B8" s="12"/>
+      <c r="C8" s="12"/>
+      <c r="D8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="13"/>
+      <c r="B9" s="12"/>
+      <c r="C9" s="12"/>
+      <c r="D9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="13"/>
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="4"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="4"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="4"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="5"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2"/>
-    </row>
-    <row r="11">
-      <c r="A11" s="7" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="8"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="2"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="5"/>
     </row>
     <row r="16">
-      <c r="A16" s="5"/>
+      <c r="A16" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="5"/>
     </row>
     <row r="17">
-      <c r="A17" s="2"/>
+      <c r="A17" s="18" t="s">
+        <v>11</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="5"/>
     </row>
     <row r="18">
-      <c r="A18" s="2"/>
+      <c r="A18" s="18" t="s">
+        <v>13</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="5"/>
     </row>
     <row r="19">
-      <c r="A19" s="2"/>
+      <c r="A19" s="19"/>
+      <c r="B19" s="17"/>
+      <c r="C19" s="17"/>
+      <c r="D19" s="5"/>
     </row>
     <row r="20">
-      <c r="A20" s="2"/>
+      <c r="A20" s="17"/>
+      <c r="B20" s="17"/>
+      <c r="C20" s="17"/>
+      <c r="D20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="20"/>
+      <c r="B21" s="17"/>
+      <c r="C21" s="17"/>
+      <c r="D21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="17"/>
+      <c r="B22" s="17"/>
+      <c r="C22" s="17"/>
+      <c r="D22" s="5"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="17"/>
+      <c r="B23" s="17"/>
+      <c r="C23" s="17"/>
+      <c r="D23" s="5"/>
+    </row>
+    <row r="24">
+      <c r="A24" s="17"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="17"/>
+      <c r="D24" s="5"/>
+    </row>
+    <row r="25">
+      <c r="A25" s="17"/>
+      <c r="B25" s="17"/>
+      <c r="C25" s="17"/>
+      <c r="D25" s="5"/>
+    </row>
+    <row r="26">
+      <c r="A26" s="17"/>
+      <c r="B26" s="17"/>
+      <c r="C26" s="17"/>
+      <c r="D26" s="5"/>
+    </row>
+    <row r="27">
+      <c r="A27" s="5"/>
+      <c r="B27" s="5"/>
+      <c r="C27" s="5"/>
+      <c r="D27" s="5"/>
+    </row>
+    <row r="28">
+      <c r="A28" s="5"/>
+      <c r="B28" s="5"/>
+      <c r="C28" s="5"/>
+      <c r="D28" s="5"/>
     </row>
     <row r="29">
-      <c r="A29" s="9"/>
+      <c r="A29" s="5"/>
+      <c r="B29" s="5"/>
+      <c r="C29" s="5"/>
+      <c r="D29" s="5"/>
+    </row>
+    <row r="30">
+      <c r="A30" s="5"/>
+      <c r="B30" s="5"/>
+      <c r="C30" s="5"/>
+      <c r="D30" s="5"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="21"/>
+      <c r="B31" s="5"/>
+      <c r="C31" s="5"/>
+      <c r="D31" s="5"/>
+    </row>
+    <row r="32">
+      <c r="A32" s="5"/>
+      <c r="B32" s="5"/>
+      <c r="C32" s="5"/>
+      <c r="D32" s="5"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="5"/>
+      <c r="B33" s="5"/>
+      <c r="C33" s="5"/>
+      <c r="D33" s="5"/>
+    </row>
+    <row r="34">
+      <c r="A34" s="5"/>
+      <c r="B34" s="5"/>
+      <c r="C34" s="5"/>
+      <c r="D34" s="5"/>
+    </row>
+    <row r="35">
+      <c r="A35" s="5"/>
+      <c r="B35" s="5"/>
+      <c r="C35" s="5"/>
+      <c r="D35" s="5"/>
+    </row>
+    <row r="36">
+      <c r="A36" s="5"/>
+      <c r="B36" s="5"/>
+      <c r="C36" s="5"/>
+      <c r="D36" s="5"/>
+    </row>
+    <row r="37">
+      <c r="A37" s="5"/>
+      <c r="B37" s="5"/>
+      <c r="C37" s="5"/>
+      <c r="D37" s="5"/>
+    </row>
+    <row r="38">
+      <c r="A38" s="5"/>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+    </row>
+    <row r="39">
+      <c r="A39" s="22"/>
+      <c r="B39" s="5"/>
+      <c r="C39" s="5"/>
+      <c r="D39" s="5"/>
     </row>
     <row r="40">
-      <c r="A40" s="9" t="s">
-        <v>7</v>
-      </c>
+      <c r="A40" s="22"/>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
     </row>
     <row r="41">
-      <c r="A41" s="7" t="s">
-        <v>8</v>
-      </c>
+      <c r="A41" s="22"/>
+      <c r="B41" s="5"/>
+      <c r="C41" s="5"/>
+      <c r="D41" s="5"/>
     </row>
     <row r="42">
-      <c r="A42" s="7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="6" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="6" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="6" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="7" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" s="7" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="7" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" s="7" t="s">
-        <v>20</v>
-      </c>
+      <c r="A42" s="23"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -668,271 +939,435 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="22.43"/>
+    <col customWidth="1" min="1" max="1" width="32.57"/>
     <col customWidth="1" min="3" max="3" width="32.86"/>
     <col customWidth="1" min="4" max="4" width="51.57"/>
     <col customWidth="1" min="5" max="5" width="36.71"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="25" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="26"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="27" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="B1" s="10" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+    </row>
+    <row r="5">
+      <c r="A5" s="21" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="B5" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="C5" s="26"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+    </row>
+    <row r="6">
+      <c r="A6" s="21" t="s">
         <v>24</v>
       </c>
-      <c r="E1" s="11" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-    </row>
-    <row r="3">
-      <c r="A3" s="8" t="s">
+      <c r="B6" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" s="26"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="31"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="31"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="B3" s="12"/>
-    </row>
-    <row r="4">
-      <c r="A4" s="13" t="s">
+      <c r="B9" s="28"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="B4" s="13" t="s">
+      <c r="B10" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="C4" s="13" t="s">
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="21" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="13" t="s">
+      <c r="B11" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="13" t="s">
+      <c r="C11" s="26"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="C5" s="12"/>
-    </row>
-    <row r="6">
-      <c r="A6" s="13" t="s">
+      <c r="B12" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="B6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C6" s="12"/>
-    </row>
-    <row r="7">
-      <c r="A7" s="14"/>
-      <c r="B7" s="14"/>
-    </row>
-    <row r="8">
-      <c r="A8" s="14"/>
-      <c r="B8" s="14"/>
-    </row>
-    <row r="9">
-      <c r="A9" s="8" t="s">
+      <c r="C12" s="26"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="21" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="12"/>
-    </row>
-    <row r="10">
-      <c r="A10" s="13" t="s">
-        <v>33</v>
-      </c>
-      <c r="B10" s="13" t="s">
+      <c r="B13" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C13" s="26"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="21" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="13" t="s">
+      <c r="B14" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="26"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B11" s="13" t="s">
+      <c r="B15" s="30" t="s">
         <v>36</v>
       </c>
-      <c r="C11" s="12"/>
-    </row>
-    <row r="12">
-      <c r="A12" s="13" t="s">
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="31"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="5"/>
+      <c r="E16" s="5"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="27" t="s">
         <v>37</v>
       </c>
-      <c r="B12" s="13" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="C12" s="12"/>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13">
-      <c r="A13" s="13" t="s">
+      <c r="B18" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" s="5"/>
+      <c r="D18" s="5"/>
+      <c r="E18" s="5"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="32" t="s">
         <v>39</v>
       </c>
-      <c r="B13" s="13" t="s">
+      <c r="B19" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C19" s="5"/>
+      <c r="D19" s="5"/>
+      <c r="E19" s="5"/>
+    </row>
+    <row r="20">
+      <c r="A20" s="32" t="s">
         <v>40</v>
       </c>
-      <c r="C13" s="12"/>
-    </row>
-    <row r="14">
-      <c r="A14" s="13" t="s">
+      <c r="B20" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C20" s="26"/>
+      <c r="D20" s="5"/>
+      <c r="E20" s="5"/>
+    </row>
+    <row r="21">
+      <c r="A21" s="32" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C14" s="12"/>
-    </row>
-    <row r="15">
-      <c r="A15" s="13" t="s">
+      <c r="B21" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="5"/>
+      <c r="E21" s="5"/>
+    </row>
+    <row r="22">
+      <c r="A22" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="13" t="s">
+      <c r="B22" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="26"/>
+      <c r="D22" s="5"/>
+      <c r="E22" s="5"/>
+    </row>
+    <row r="23">
+      <c r="A23" s="32" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="12"/>
-    </row>
-    <row r="20">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="12"/>
-    </row>
-    <row r="21">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="12"/>
-    </row>
-    <row r="22">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-    </row>
-    <row r="23">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="12"/>
+      <c r="B23" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="26"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="12"/>
+      <c r="A24" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C24" s="26"/>
+      <c r="D24" s="5"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25">
-      <c r="A25" s="12"/>
-      <c r="B25" s="12"/>
-      <c r="C25" s="12"/>
+      <c r="A25" s="32" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="5"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26">
-      <c r="A26" s="12"/>
-      <c r="B26" s="12"/>
-      <c r="C26" s="12"/>
+      <c r="A26" s="32" t="s">
+        <v>46</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C26" s="26"/>
+      <c r="D26" s="5"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27">
-      <c r="A27" s="12"/>
-      <c r="B27" s="12"/>
-      <c r="C27" s="12"/>
+      <c r="A27" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="B27" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="26"/>
+      <c r="D27" s="5"/>
+      <c r="E27" s="5"/>
     </row>
     <row r="28">
-      <c r="A28" s="12"/>
-      <c r="B28" s="12"/>
-      <c r="C28" s="12"/>
+      <c r="A28" s="32" t="s">
+        <v>48</v>
+      </c>
+      <c r="B28" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C28" s="26"/>
+      <c r="D28" s="5"/>
+      <c r="E28" s="5"/>
     </row>
     <row r="29">
-      <c r="A29" s="12"/>
-      <c r="B29" s="12"/>
-      <c r="C29" s="12"/>
+      <c r="A29" s="32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B29" s="34" t="s">
+        <v>33</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="5"/>
+      <c r="E29" s="5"/>
     </row>
     <row r="30">
-      <c r="A30" s="12"/>
-      <c r="B30" s="12"/>
-      <c r="C30" s="12"/>
+      <c r="A30" s="32" t="s">
+        <v>50</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C30" s="26"/>
+      <c r="D30" s="5"/>
+      <c r="E30" s="5"/>
+    </row>
+    <row r="31">
+      <c r="A31" s="32" t="s">
+        <v>51</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="32">
-      <c r="A32" s="12"/>
-      <c r="B32" s="12"/>
+      <c r="A32" s="32" t="s">
+        <v>52</v>
+      </c>
+      <c r="B32" s="34" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="33">
-      <c r="A33" s="12"/>
-      <c r="B33" s="12"/>
+      <c r="A33" s="35" t="s">
+        <v>53</v>
+      </c>
+      <c r="B33" s="34" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="34">
-      <c r="A34" s="12"/>
-      <c r="B34" s="12"/>
+      <c r="A34" s="35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B34" s="33" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="35">
-      <c r="A35" s="12"/>
-      <c r="B35" s="12"/>
+      <c r="A35" s="35" t="s">
+        <v>55</v>
+      </c>
+      <c r="B35" s="34" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="36">
-      <c r="A36" s="12"/>
-      <c r="B36" s="12"/>
+      <c r="A36" s="35" t="s">
+        <v>56</v>
+      </c>
+      <c r="B36" s="34" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="37">
-      <c r="A37" s="12"/>
-      <c r="B37" s="12"/>
+      <c r="A37" s="35" t="s">
+        <v>57</v>
+      </c>
+      <c r="B37" s="34" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="38">
-      <c r="A38" s="12"/>
-      <c r="B38" s="12"/>
+      <c r="A38" s="36"/>
+      <c r="B38" s="37"/>
     </row>
     <row r="39">
-      <c r="A39" s="12"/>
-      <c r="B39" s="12"/>
+      <c r="A39" s="36"/>
+      <c r="B39" s="37"/>
     </row>
     <row r="40">
-      <c r="A40" s="12"/>
-      <c r="B40" s="12"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="37"/>
     </row>
     <row r="42">
-      <c r="A42" s="12"/>
-      <c r="B42" s="12"/>
+      <c r="A42" s="37"/>
+      <c r="B42" s="37"/>
     </row>
     <row r="43">
-      <c r="A43" s="12"/>
-      <c r="B43" s="12"/>
+      <c r="A43" s="37"/>
+      <c r="B43" s="37"/>
     </row>
     <row r="45">
-      <c r="A45" s="12"/>
-      <c r="B45" s="12"/>
+      <c r="A45" s="37"/>
+      <c r="B45" s="37"/>
     </row>
     <row r="46">
-      <c r="A46" s="12"/>
-      <c r="B46" s="12"/>
+      <c r="A46" s="37"/>
+      <c r="B46" s="37"/>
     </row>
     <row r="48">
-      <c r="A48" s="12"/>
-      <c r="B48" s="12"/>
+      <c r="A48" s="37"/>
+      <c r="B48" s="37"/>
     </row>
     <row r="49">
-      <c r="A49" s="12"/>
-      <c r="B49" s="12"/>
+      <c r="A49" s="37"/>
+      <c r="B49" s="37"/>
     </row>
     <row r="50">
-      <c r="A50" s="12"/>
-      <c r="B50" s="12"/>
+      <c r="A50" s="37"/>
+      <c r="B50" s="37"/>
     </row>
     <row r="51">
-      <c r="A51" s="12"/>
-      <c r="B51" s="12"/>
+      <c r="A51" s="37"/>
+      <c r="B51" s="37"/>
     </row>
     <row r="52">
-      <c r="A52" s="12"/>
-      <c r="B52" s="12"/>
+      <c r="A52" s="37"/>
+      <c r="B52" s="37"/>
     </row>
     <row r="53">
-      <c r="A53" s="12"/>
-      <c r="B53" s="12"/>
+      <c r="A53" s="37"/>
+      <c r="B53" s="37"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -957,49 +1392,125 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="A1" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="12"/>
+      <c r="A3" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4">
-      <c r="A4" s="12" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="12"/>
+      <c r="A4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
+      <c r="A5" s="30"/>
+      <c r="B5" s="30"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="A6" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="21" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="39"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
+    </row>
+    <row r="9">
+      <c r="A9" s="39"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="39"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="39"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="39"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="39"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="39"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="40"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -1016,59 +1527,148 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="25.86"/>
+    <col customWidth="1" min="1" max="1" width="33.0"/>
     <col customWidth="1" min="2" max="2" width="25.43"/>
     <col customWidth="1" min="3" max="3" width="23.57"/>
     <col customWidth="1" min="4" max="4" width="31.0"/>
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="10" t="s">
-        <v>21</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>22</v>
-      </c>
-      <c r="C1" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D1" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="11" t="s">
+      <c r="A1" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="24" t="s">
+        <v>16</v>
+      </c>
+      <c r="C1" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="25" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="14"/>
-      <c r="B2" s="14"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="13" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" s="14"/>
+      <c r="A3" s="38" t="s">
+        <v>58</v>
+      </c>
+      <c r="B3" s="28"/>
+      <c r="C3" s="29"/>
+      <c r="D3" s="29"/>
+      <c r="E3" s="29"/>
     </row>
     <row r="4">
-      <c r="A4" s="13" t="s">
-        <v>45</v>
-      </c>
-      <c r="B4" s="14"/>
+      <c r="A4" s="26" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="26"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
+      <c r="A5" s="26"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="13" t="s">
-        <v>47</v>
-      </c>
-      <c r="B6" s="13" t="s">
-        <v>43</v>
-      </c>
+      <c r="A6" s="27" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6" s="28"/>
+      <c r="C6" s="29"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+    </row>
+    <row r="7">
+      <c r="A7" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+    </row>
+    <row r="8">
+      <c r="A8" s="39"/>
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="12"/>
+      <c r="A9" s="39"/>
+      <c r="B9" s="5"/>
+      <c r="C9" s="5"/>
+      <c r="D9" s="5"/>
+      <c r="E9" s="5"/>
+    </row>
+    <row r="10">
+      <c r="A10" s="31"/>
+      <c r="B10" s="5"/>
+      <c r="C10" s="5"/>
+      <c r="D10" s="5"/>
+      <c r="E10" s="5"/>
+    </row>
+    <row r="11">
+      <c r="A11" s="39"/>
+      <c r="B11" s="5"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="5"/>
+      <c r="E11" s="5"/>
+    </row>
+    <row r="12">
+      <c r="A12" s="39"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5"/>
+      <c r="E12" s="5"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="39"/>
+      <c r="B13" s="5"/>
+      <c r="C13" s="5"/>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+    </row>
+    <row r="14">
+      <c r="A14" s="39"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+    </row>
+    <row r="15">
+      <c r="A15" s="39"/>
+      <c r="B15" s="5"/>
+      <c r="C15" s="5"/>
+      <c r="D15" s="5"/>
+      <c r="E15" s="5"/>
+    </row>
+    <row r="16">
+      <c r="A16" s="40"/>
+    </row>
+    <row r="17">
+      <c r="A17" s="40"/>
+    </row>
+    <row r="18">
+      <c r="A18" s="40"/>
+    </row>
+    <row r="19">
+      <c r="A19" s="40"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
